--- a/tests/A01_pixell_test_plan_bank_account.xlsx
+++ b/tests/A01_pixell_test_plan_bank_account.xlsx
@@ -225,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -286,7 +292,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -550,100 +563,118 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -974,13 +1005,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="32" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="33" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="33" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="33" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="33" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="38" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="39" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="39" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="39" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="39" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="38" width="49.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -990,7 +1021,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75">
       <c r="A2" s="1"/>
@@ -1003,564 +1034,564 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="G5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="16">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5" customFormat="1" s="18">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5" customFormat="1" s="16">
-      <c r="A8" s="17"/>
-      <c r="B8" s="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="18">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="51.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="45">
       <c r="A9" s="1"/>
-      <c r="B9" s="24">
+      <c r="B9" s="28">
         <v>3</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="42.75" customFormat="1" s="16">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="45" customFormat="1" s="18">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="48.75" customFormat="1" s="16">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="18">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="27">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="49.5" customFormat="1" s="16">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="18">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="27">
         <v>456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="50.25" customFormat="1" s="16">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5" customFormat="1" s="18">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24">
         <v>7</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="24">
+      <c r="B14" s="28">
         <v>8</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="30">
         <v>500.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5" customFormat="1" s="16">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5" customFormat="1" s="18">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="30">
         <v>-1000.01</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="45.75" customFormat="1" s="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="45.75" customFormat="1" s="18">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="51" customFormat="1" s="16">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="51" customFormat="1" s="18">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20">
         <v>11</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="27">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A18" s="17"/>
-      <c r="B18" s="21">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A18" s="19"/>
+      <c r="B18" s="24">
         <v>12</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48">
       <c r="A19" s="1"/>
-      <c r="B19" s="24">
+      <c r="B19" s="28">
         <v>13</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="27">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20">
         <v>14</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20">
         <v>15</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20">
         <v>16</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A23" s="19"/>
+      <c r="B23" s="24">
         <v>17</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="31"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="31.149999999999995">
       <c r="A24" s="1"/>
-      <c r="B24" s="24">
+      <c r="B24" s="28">
         <v>18</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20">
         <v>19</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20">
         <v>20</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20">
         <v>21</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A28" s="17"/>
-      <c r="B28" s="21">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A28" s="19"/>
+      <c r="B28" s="24">
         <v>22</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="31"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="31.149999999999995">
       <c r="A29" s="1"/>
-      <c r="B29" s="24">
+      <c r="B29" s="28">
         <v>23</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20">
         <v>24</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20">
         <v>25</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20">
         <v>26</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A33" s="17"/>
-      <c r="B33" s="21">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24">
         <v>27</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="31"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="31.149999999999995">
       <c r="A34" s="1"/>
-      <c r="B34" s="24">
+      <c r="B34" s="28">
         <v>28</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20">
         <v>29</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20">
         <v>30</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="31.149999999999995" customFormat="1" s="18">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20">
         <v>31</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
@@ -1569,18 +1600,18 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
